--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunizationRecommendation.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunizationRecommendation.xlsx
@@ -377,7 +377,7 @@
     <t>ImmunizationRecommendation.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/who-ddcc-vaccines-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -746,7 +746,7 @@
     <t>The targeted disease for the recommendation.</t>
   </si>
   <si>
-    <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/who-ddcc-disease-targeted-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-disease-targeted-covid-19</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.contraindicatedVaccineCode</t>
@@ -972,7 +972,7 @@
     <t>ImmunizationRecommendation.recommendation.supportingImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCImmunization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization)
 </t>
   </si>
   <si>
@@ -1189,7 +1189,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="128.92578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunizationRecommendation.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCImmunizationRecommendation.xlsx
@@ -377,7 +377,7 @@
     <t>ImmunizationRecommendation.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-vaccines-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -746,7 +746,7 @@
     <t>The targeted disease for the recommendation.</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc-rcs1/ValueSet/who-ddcc-disease-targeted-covid-19</t>
+    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-disease-targeted-covid-19</t>
   </si>
   <si>
     <t>ImmunizationRecommendation.recommendation.contraindicatedVaccineCode</t>
@@ -972,7 +972,7 @@
     <t>ImmunizationRecommendation.recommendation.supportingImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization)
 </t>
   </si>
   <si>
@@ -1189,7 +1189,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="128.92578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.47265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
